--- a/backend/Pubquiz.Domain.Tests/testfiles/PeCe.xlsx
+++ b/backend/Pubquiz.Domain.Tests/testfiles/PeCe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\pubquiz\backend\Pubquiz.Domain.Tests\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604AF6A5-D263-4085-9DE4-4B860AB7DF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B66A49-C584-418E-84DE-160FA2B48AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A6F7848D-7C4F-FD4F-B564-0185C49679BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Titel</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Wat is de naam van de droogste champagnesoort?</t>
   </si>
   <si>
-    <t>Sec</t>
-  </si>
-  <si>
     <t>Hoe heet de schrijver van ‘The Hitchhiker's Guide to the Galaxy’?</t>
   </si>
   <si>
@@ -190,15 +187,9 @@
     <t>Choices</t>
   </si>
   <si>
-    <t>Brut;Sec;Doux</t>
-  </si>
-  <si>
     <t>Vanalles 2 - 2</t>
   </si>
   <si>
-    <t>Douglas Adams;Adams</t>
-  </si>
-  <si>
     <t>MediaTitle</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
   </si>
   <si>
     <t>Hoe heet de componist?</t>
-  </si>
-  <si>
-    <t>Brahms;Johannes Brahms</t>
   </si>
   <si>
     <t>Vanalles 1 - 4</t>
@@ -259,6 +247,15 @@
   </si>
   <si>
     <t>MediaFileName</t>
+  </si>
+  <si>
+    <t>Brut||Sec||Doux</t>
+  </si>
+  <si>
+    <t>Brahms&amp;&amp;Johannes Brahms</t>
+  </si>
+  <si>
+    <t>Douglas Adams&amp;&amp;Adams</t>
   </si>
 </sst>
 </file>
@@ -694,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +708,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M10" sqref="M10:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,105 +725,105 @@
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="7" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:16" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -835,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>4</v>
@@ -843,19 +840,22 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>42</v>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>3</v>
@@ -872,28 +872,31 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>44</v>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>5</v>
@@ -901,16 +904,19 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>47</v>
+      <c r="N6" t="s">
+        <v>46</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
@@ -918,60 +924,66 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>6</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>66</v>
+      <c r="O8" s="7">
+        <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -980,74 +992,77 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>53</v>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -1055,45 +1070,54 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>15</v>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>16</v>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1125,7 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1802D06-D895-FA4F-988E-42A775C2771D}">
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$7</xm:f>
@@ -1142,70 +1166,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1"/>
     </row>

--- a/backend/Pubquiz.Domain.Tests/testfiles/PeCe.xlsx
+++ b/backend/Pubquiz.Domain.Tests/testfiles/PeCe.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\pubquiz\backend\Pubquiz.Domain.Tests\testfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8292B-8A97-4170-AEEF-ECAC4BB159DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quiz" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="QuizItems" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Lookups" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Quiz" sheetId="1" r:id="rId1"/>
+    <sheet name="QuizItems" sheetId="2" r:id="rId2"/>
+    <sheet name="Lookups" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,241 +29,238 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
-    <t xml:space="preserve">QuizTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PéCé-pubquiz 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SectionTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuizItemTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuizItemType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuizItemMaxScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaIsSolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InteractionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InteractionMaxScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LevenshteinTolerance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlagIfWithinTolerance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welkom!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welkom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisregels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebruik van apparatuur met een&lt;br&gt;scherm is (uiteraard) niet toegestaan.
+    <t>QuizTitle</t>
+  </si>
+  <si>
+    <t>PéCé-pubquiz 2019</t>
+  </si>
+  <si>
+    <t>SectionTitle</t>
+  </si>
+  <si>
+    <t>QuizItemTitle</t>
+  </si>
+  <si>
+    <t>QuizItemType</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>QuizItemMaxScore</t>
+  </si>
+  <si>
+    <t>MediaTitle</t>
+  </si>
+  <si>
+    <t>MediaType</t>
+  </si>
+  <si>
+    <t>MediaFileName</t>
+  </si>
+  <si>
+    <t>MediaUrl</t>
+  </si>
+  <si>
+    <t>MediaIsSolution</t>
+  </si>
+  <si>
+    <t>InteractionType</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>InteractionMaxScore</t>
+  </si>
+  <si>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>LevenshteinTolerance</t>
+  </si>
+  <si>
+    <t>FlagIfWithinTolerance</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Welkom!</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Welkom</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>welcome.jpg</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Huisregels</t>
+  </si>
+  <si>
+    <t>Gebruik van apparatuur met een&lt;br&gt;scherm is (uiteraard) niet toegestaan.
 Over de uitslag kan worden gecorrespondeerd,
 nmaar de quizmaster heeft altijd gelijk.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanalles 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 1 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortAnswer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat bereken je met een integraalberekening?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschrijving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oppervlakte onder een grafiek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 1 - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bij Cito gebruiken we VPN-software genaamd Pulse Secure om thuis te werken. Waar staat VPN voor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betekenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual private network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 1 - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(filmpje)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoeveel hazen had Eliud Kipchoge bij zich tijdens zijn recordpoging?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7;zeven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat is de naam van de sponsor van het evenement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INEOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 1 - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1q4.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoe heet de componist?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahms&amp;&amp;Johannes Brahms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 2 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultipleChoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat is de naam van de droogste champagnesoort?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brut||Sec||Doux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 2 - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoe heet de schrijver van ‘The Hitchhiker's Guide to the Galaxy’?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Douglas Adams&amp;&amp;Adams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanalles 2 - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(audiofragment)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2q3.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Jesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitvoerende artiest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnny Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Originele artiest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depeche Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuizItemTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InteractionTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultipleResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExtendedText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed</t>
+    <t>Vanalles 1</t>
+  </si>
+  <si>
+    <t>Vanalles 1 - 1</t>
+  </si>
+  <si>
+    <t>ShortAnswer</t>
+  </si>
+  <si>
+    <t>Wat bereken je met een integraalberekening?</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Oppervlakte onder een grafiek</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Vanalles 1 - 2</t>
+  </si>
+  <si>
+    <t>Bij Cito gebruiken we VPN-software genaamd Pulse Secure om thuis te werken. Waar staat VPN voor?</t>
+  </si>
+  <si>
+    <t>Betekenis</t>
+  </si>
+  <si>
+    <t>virtual private network</t>
+  </si>
+  <si>
+    <t>Vanalles 1 - 3</t>
+  </si>
+  <si>
+    <t>(filmpje)</t>
+  </si>
+  <si>
+    <t>Hoeveel hazen had Eliud Kipchoge bij zich tijdens zijn recordpoging?</t>
+  </si>
+  <si>
+    <t>7;zeven</t>
+  </si>
+  <si>
+    <t>Wat is de naam van de sponsor van het evenement?</t>
+  </si>
+  <si>
+    <t>INEOS</t>
+  </si>
+  <si>
+    <t>Vanalles 1 - 4</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>s1q4.mp4</t>
+  </si>
+  <si>
+    <t>Hoe heet de componist?</t>
+  </si>
+  <si>
+    <t>Brahms&amp;&amp;Johannes Brahms</t>
+  </si>
+  <si>
+    <t>Vanalles 2</t>
+  </si>
+  <si>
+    <t>Vanalles 2 - 1</t>
+  </si>
+  <si>
+    <t>MultipleChoice</t>
+  </si>
+  <si>
+    <t>Wat is de naam van de droogste champagnesoort?</t>
+  </si>
+  <si>
+    <t>Kies</t>
+  </si>
+  <si>
+    <t>Brut||Sec||Doux</t>
+  </si>
+  <si>
+    <t>Vanalles 2 - 2</t>
+  </si>
+  <si>
+    <t>Hoe heet de schrijver van ‘The Hitchhiker's Guide to the Galaxy’?</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Douglas Adams&amp;&amp;Adams</t>
+  </si>
+  <si>
+    <t>Vanalles 2 - 3</t>
+  </si>
+  <si>
+    <t>(audiofragment)</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>s2q3.mp3</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Personal Jesus</t>
+  </si>
+  <si>
+    <t>Uitvoerende artiest</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Originele artiest</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>QuizItemTypes</t>
+  </si>
+  <si>
+    <t>InteractionTypes</t>
+  </si>
+  <si>
+    <t>MultipleResponse</t>
+  </si>
+  <si>
+    <t>ExtendedText</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -267,22 +269,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -290,7 +277,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -307,14 +294,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -323,105 +310,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Heading 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -480,33 +417,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.88"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,48 +760,40 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="48.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="30.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.62"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
+    <col min="17" max="17" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -573,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>9</v>
@@ -609,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -621,10 +858,10 @@
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>24</v>
@@ -635,7 +872,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
@@ -648,11 +885,11 @@
       <c r="K3" s="11"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -661,7 +898,7 @@
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -670,21 +907,21 @@
       <c r="L4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -693,7 +930,7 @@
       <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
@@ -702,21 +939,21 @@
       <c r="L5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -725,7 +962,7 @@
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>2</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -734,20 +971,20 @@
       <c r="L6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C7" s="12"/>
       <c r="K7" s="12" t="s">
         <v>30</v>
@@ -755,20 +992,20 @@
       <c r="L7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
@@ -778,14 +1015,14 @@
       <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>47</v>
@@ -799,24 +1036,24 @@
       <c r="L8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="9">
         <v>1</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="9">
         <v>0</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -825,7 +1062,7 @@
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -834,18 +1071,18 @@
       <c r="L9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -854,7 +1091,7 @@
       <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>1</v>
       </c>
       <c r="K10" s="12" t="s">
@@ -863,21 +1100,21 @@
       <c r="L10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -886,19 +1123,19 @@
       <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -907,20 +1144,20 @@
       <c r="L11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
       <c r="K12" s="12" t="s">
         <v>30</v>
@@ -928,20 +1165,20 @@
       <c r="L12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="12"/>
       <c r="K13" s="12" t="s">
         <v>30</v>
@@ -949,563 +1186,574 @@
       <c r="L13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="Q13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="12"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="12"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="12"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="12"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="12"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="12"/>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" s="12"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="12"/>
       <c r="K81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" s="12"/>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" s="12"/>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="12"/>
       <c r="K89" s="12"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="12"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="12"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" s="12"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" s="12"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="12"/>
       <c r="K97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="12"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="12"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="12"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="12"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" s="12"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="K105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" s="12"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" s="12"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" s="12"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" s="12"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" s="12"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" s="12"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" s="12"/>
       <c r="K113" s="12"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" s="12"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" s="12"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" s="12"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" s="12"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" s="12"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" s="12"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" s="12"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" s="12"/>
       <c r="K121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" s="12"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" s="12"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" s="12"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" s="12"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" s="12"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" s="12"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" s="12"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="12"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="12"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="12"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="12"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="12"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="12"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="12"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="12"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="12"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="12"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="12"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C142" type="list">
-      <formula1>Lookups!$A$2:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1013" type="list">
-      <formula1>Lookups!$E$2:$E$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K127" type="list">
-      <formula1>Lookups!$C$2:$C$5</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C2:C142</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F1013</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>K2:K127</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -1517,70 +1765,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>